--- a/Data/Transitions/19261928Translation.xlsx
+++ b/Data/Transitions/19261928Translation.xlsx
@@ -31,13 +31,13 @@
     <t>{2.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.7129629629629629}</t>
+    <t>{3.0: 0.7069508804448563}</t>
   </si>
   <si>
     <t>{4.0: 1.0}</t>
   </si>
   <si>
-    <t>{5.0: 0.9881325570980743}</t>
+    <t>{5.0: 0.988177559669864}</t>
   </si>
   <si>
     <t>{6.0: 1.0}</t>
@@ -52,7 +52,7 @@
     <t>{9.0: 1.0}</t>
   </si>
   <si>
-    <t>{10.0: 0.9896835717381881}</t>
+    <t>{10.0: 0.9895951735594999}</t>
   </si>
   <si>
     <t>{11.0: 1.0}</t>
@@ -106,7 +106,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 246.0: 0.021092882693968175, 681.0: 0.003530544559751792, 741.0: 0.006816245384833854, 789.0: 0.0030806647750304013}</t>
+    <t>{46.0: 1.0, 246.0: 0.02106949236076885, 681.0: 0.0035354617527319477, 741.0: 0.006816245384833854, 789.0: 0.0030869212022745737}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -355,7 +355,7 @@
     <t>{179.0: 1.0}</t>
   </si>
   <si>
-    <t>{180.0: 1.0, 410.0: 0.03427719821162444}</t>
+    <t>{180.0: 1.0, 410.0: 0.03398499659013412}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
@@ -400,10 +400,10 @@
     <t>{210.0: 1.0}</t>
   </si>
   <si>
-    <t>{211.0: 0.970627863109674}</t>
-  </si>
-  <si>
-    <t>{212.0: 1.0, 681.0: 0.00641917192682144}</t>
+    <t>{211.0: 0.9704727075714479}</t>
+  </si>
+  <si>
+    <t>{212.0: 1.0, 681.0: 0.0064281122776944505}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.9789071173060319}</t>
+    <t>{246.0: 0.9789305076392312}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -577,7 +580,7 @@
     <t>{277.0: 1.0}</t>
   </si>
   <si>
-    <t>{278.0: 1.0, 757.0: 0.02934816187828236}</t>
+    <t>{278.0: 1.0, 757.0: 0.03518518518518519}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -700,9 +703,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
@@ -742,7 +742,7 @@
     <t>{409.0: 1.0}</t>
   </si>
   <si>
-    <t>{410.0: 0.9657228017883756}</t>
+    <t>{410.0: 0.9660150034098659}</t>
   </si>
   <si>
     <t>{412.0: 1.0}</t>
@@ -763,7 +763,7 @@
     <t>{417.0: 1.0}</t>
   </si>
   <si>
-    <t>{418.0: 0.8830488750969744}</t>
+    <t>{418.0: 0.8827532568539763}</t>
   </si>
   <si>
     <t>{419.0: 1.0}</t>
@@ -988,7 +988,7 @@
     <t>{561.0: 1.0}</t>
   </si>
   <si>
-    <t>{562.0: 1.0, 211.0: 0.029372136890326056}</t>
+    <t>{562.0: 1.0, 211.0: 0.02952729242855208}</t>
   </si>
   <si>
     <t>{563.0: 1.0}</t>
@@ -1024,7 +1024,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.7262835548605682}</t>
+    <t>{580.0: 0.7254786643141867}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1117,10 +1117,10 @@
     <t>{611.0: 1.0}</t>
   </si>
   <si>
-    <t>{612.0: 1.0, 613.0: 0.014371407148212946}</t>
-  </si>
-  <si>
-    <t>{613.0: 0.985628592851787}</t>
+    <t>{612.0: 1.0, 613.0: 0.013974117504101099}</t>
+  </si>
+  <si>
+    <t>{613.0: 0.986025882495899}</t>
   </si>
   <si>
     <t>{614.0: 1.0}</t>
@@ -1201,13 +1201,13 @@
     <t>{680.0: 1.0}</t>
   </si>
   <si>
-    <t>{681.0: 0.9900502835134267}</t>
+    <t>{681.0: 0.9900364259695736}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{683.0: 1.0, 698.0: 0.002109181141439206}</t>
+    <t>{683.0: 1.0, 698.0: 0.0021246016371930265}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1243,7 +1243,7 @@
     <t>{694.0: 1.0}</t>
   </si>
   <si>
-    <t>{695.0: 1.0, 857.0: 0.03038046564452016}</t>
+    <t>{695.0: 1.0, 857.0: 0.030402045745134252}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1252,7 +1252,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9978908188585608}</t>
+    <t>{698.0: 0.9978753983628069}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1276,10 +1276,10 @@
     <t>{706.0: 1.0}</t>
   </si>
   <si>
-    <t>{707.0: 0.9947004269100544}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.27371644513943183}</t>
+    <t>{707.0: 0.9945071711931645}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.2745213356858132}</t>
   </si>
   <si>
     <t>{729.0: 1.0}</t>
@@ -1363,7 +1363,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.4164349706518381}</t>
+    <t>{757.0: 0.30037037037037034}</t>
   </si>
   <si>
     <t>{758.0: 1.0}</t>
@@ -1372,10 +1372,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.056717805671780565}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9432821943282195}</t>
+    <t>{760.0: 1.0, 761.0: 0.05663223859811999}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9433677614018801}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1411,7 +1411,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{773.0: 1.0, 757.0: 0.5542168674698795}</t>
+    <t>{773.0: 1.0, 757.0: 0.6644444444444444}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1456,7 +1456,7 @@
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9969193352249696}</t>
+    <t>{789.0: 0.9969130787977254}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1510,7 +1510,7 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 1.0, 707.0: 0.005299573089945532}</t>
+    <t>{848.0: 1.0, 707.0: 0.00549282880683552}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
@@ -1537,7 +1537,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9696195343554799}</t>
+    <t>{857.0: 0.9695979542548657}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1555,7 +1555,7 @@
     <t>{862.0: 1.0}</t>
   </si>
   <si>
-    <t>{863.0: 1.0, 10.0: 0.010316428261811877}</t>
+    <t>{863.0: 1.0, 10.0: 0.010404826440500132}</t>
   </si>
   <si>
     <t>{885.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9349464271666311}</t>
+    <t>{922.0: 0.9362087247694011}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1660,13 +1660,13 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{3.0: 0.28703703703703703, 418.0: 0.1169511249030256, 922.0: 0.06505357283336885}</t>
-  </si>
-  <si>
-    <t>{929.0: 1.0, 930.0: 0.10097227696754697}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.899027723032453}</t>
+    <t>{3.0: 0.2930491195551437, 418.0: 0.11724674314602372, 922.0: 0.06379127523059891}</t>
+  </si>
+  <si>
+    <t>{929.0: 1.0, 930.0: 0.10524513831826897}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.894754861681731}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1678,7 +1678,7 @@
     <t>{933.0: 1.0}</t>
   </si>
   <si>
-    <t>{934.0: 1.0, 5.0: 0.01186744290192566}</t>
+    <t>{934.0: 1.0, 5.0: 0.01182244033013607}</t>
   </si>
   <si>
     <t>{935.0: 1.0}</t>
@@ -1771,7 +1771,7 @@
     <t>{46.0: 0.9164572864321608, 246.0: 0.053706030150753765, 681.0: 0.0103643216080402, 741.0: 0.007537688442211055, 789.0: 0.01193467336683417}</t>
   </si>
   <si>
-    <t>{180.0: 0.9746846160358988, 410.0: 0.02531538396410126}</t>
+    <t>{180.0: 0.9746846160358987, 410.0: 0.02531538396410126}</t>
   </si>
   <si>
     <t>{211.0: 1.0}</t>
@@ -1798,7 +1798,7 @@
     <t>{562.0: 0.9667784212130448, 211.0: 0.0332215787869552}</t>
   </si>
   <si>
-    <t>{576.0: 0.9802847754654983, 401.0: 0.019715224534501644}</t>
+    <t>{576.0: 0.9802847754654982, 401.0: 0.019715224534501644}</t>
   </si>
   <si>
     <t>{580.0: 1.0}</t>
@@ -1816,7 +1816,7 @@
     <t>{683.0: 0.9892029215624007, 698.0: 0.010797078437599238}</t>
   </si>
   <si>
-    <t>{695.0: 0.9182582123758595, 857.0: 0.08174178762414057}</t>
+    <t>{695.0: 0.9183829138062548, 857.0: 0.08161708619374523}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -3913,7 +3913,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3935,29 +3935,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>588</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>588</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4078,7 +4078,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4144,7 +4144,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4166,7 +4166,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4243,7 +4243,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4254,7 +4254,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4265,29 +4265,29 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>589</v>
+        <v>187</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4331,7 +4331,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4342,7 +4342,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4353,7 +4353,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4364,7 +4364,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4540,7 +4540,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4562,7 +4562,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4628,7 +4628,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4661,7 +4661,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4716,7 +4716,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
